--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/UZ/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BF8359-F38F-4618-A045-1999A037AF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7E8F31-8959-4F41-9D9C-3793C5E43CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$K$1871</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$K$1872</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="197">
   <si>
     <t>SU002829</t>
   </si>
@@ -614,6 +614,12 @@
   <si>
     <t>Сосиски «Сливочные» ф/в 0,45 п/а мгс ТМ «Вязанка»</t>
   </si>
+  <si>
+    <t>2634 Колбаса Дугушка Стародворская ТМ Стародворье ТС Дугушка  ПОКОМ</t>
+  </si>
+  <si>
+    <t>со слов Сверчкова</t>
+  </si>
 </sst>
 </file>
 
@@ -1093,11 +1099,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K1885"/>
+  <dimension ref="A1:K1886"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,7 +2081,7 @@
     </row>
     <row r="39" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>103</v>
@@ -2100,24 +2106,26 @@
     </row>
     <row r="40" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D40" s="4">
-        <v>4301031349</v>
+        <v>4301011376</v>
       </c>
       <c r="E40" s="3">
-        <v>4680115883116</v>
+        <v>4680115885226</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="17"/>
+        <v>105</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>196</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="20"/>
       <c r="J40" s="1"/>
@@ -2125,22 +2133,22 @@
     </row>
     <row r="41" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="D41" s="4">
-        <v>4301051660</v>
+        <v>4301031349</v>
       </c>
       <c r="E41" s="3">
-        <v>4607091384253</v>
+        <v>4680115883116</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="1"/>
@@ -2148,24 +2156,24 @@
       <c r="J41" s="1"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D42" s="4">
-        <v>4301060441</v>
+        <v>4301051660</v>
       </c>
       <c r="E42" s="3">
-        <v>4607091389357</v>
+        <v>4607091384253</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="1"/>
@@ -2173,24 +2181,24 @@
       <c r="J42" s="1"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="D43" s="4">
-        <v>4301011816</v>
+        <v>4301060441</v>
       </c>
       <c r="E43" s="3">
-        <v>4680115881426</v>
+        <v>4607091389357</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="1"/>
@@ -2200,22 +2208,22 @@
     </row>
     <row r="44" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4">
-        <v>4301011801</v>
+        <v>4301011816</v>
       </c>
       <c r="E44" s="3">
-        <v>4680115881419</v>
+        <v>4680115881426</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="1"/>
@@ -2225,22 +2233,22 @@
     </row>
     <row r="45" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D45" s="4">
-        <v>4301011382</v>
+        <v>4301011801</v>
       </c>
       <c r="E45" s="3">
-        <v>4607091385687</v>
+        <v>4680115881419</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="1"/>
@@ -2248,49 +2256,49 @@
       <c r="J45" s="1"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D46" s="4">
-        <v>4301011468</v>
+        <v>4301011382</v>
       </c>
       <c r="E46" s="3">
-        <v>4680115881327</v>
+        <v>4607091385687</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="G46" s="17"/>
       <c r="H46" s="1"/>
       <c r="I46" s="20"/>
       <c r="J46" s="1"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="D47" s="4">
-        <v>4301011415</v>
+        <v>4301011468</v>
       </c>
       <c r="E47" s="3">
-        <v>4680115880429</v>
+        <v>4680115881327</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="1"/>
@@ -2300,22 +2308,22 @@
     </row>
     <row r="48" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="D48" s="4">
-        <v>4301032015</v>
+        <v>4301011415</v>
       </c>
       <c r="E48" s="3">
-        <v>4607091383102</v>
+        <v>4680115880429</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="1"/>
@@ -2325,22 +2333,22 @@
     </row>
     <row r="49" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D49" s="4">
-        <v>4301030233</v>
+        <v>4301032015</v>
       </c>
       <c r="E49" s="3">
-        <v>4607091388404</v>
+        <v>4607091383102</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="1"/>
@@ -2348,13 +2356,25 @@
       <c r="J49" s="1"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="5"/>
+    <row r="50" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="4">
+        <v>4301030233</v>
+      </c>
+      <c r="E50" s="3">
+        <v>4607091388404</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="G50" s="16"/>
       <c r="H50" s="1"/>
       <c r="I50" s="20"/>
@@ -2855,7 +2875,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2881,7 +2901,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5598,7 +5618,7 @@
       <c r="J299" s="1"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -5611,7 +5631,7 @@
       <c r="J300" s="1"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -5644,7 +5664,7 @@
       <c r="D303" s="4"/>
       <c r="E303" s="3"/>
       <c r="F303" s="5"/>
-      <c r="G303" s="17"/>
+      <c r="G303" s="16"/>
       <c r="H303" s="1"/>
       <c r="I303" s="20"/>
       <c r="J303" s="1"/>
@@ -5761,14 +5781,14 @@
       <c r="D312" s="4"/>
       <c r="E312" s="3"/>
       <c r="F312" s="5"/>
-      <c r="G312" s="16"/>
+      <c r="G312" s="17"/>
       <c r="H312" s="1"/>
       <c r="I312" s="20"/>
       <c r="J312" s="1"/>
       <c r="K312" s="20"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="15"/>
+      <c r="A313" s="6"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="4"/>
@@ -5781,7 +5801,7 @@
       <c r="K313" s="20"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="6"/>
+      <c r="A314" s="15"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="4"/>
@@ -5891,7 +5911,7 @@
       <c r="D322" s="4"/>
       <c r="E322" s="3"/>
       <c r="F322" s="5"/>
-      <c r="G322" s="18"/>
+      <c r="G322" s="16"/>
       <c r="H322" s="1"/>
       <c r="I322" s="20"/>
       <c r="J322" s="1"/>
@@ -5917,7 +5937,7 @@
       <c r="D324" s="4"/>
       <c r="E324" s="3"/>
       <c r="F324" s="5"/>
-      <c r="G324" s="16"/>
+      <c r="G324" s="18"/>
       <c r="H324" s="1"/>
       <c r="I324" s="20"/>
       <c r="J324" s="1"/>
@@ -8361,7 +8381,7 @@
       <c r="D512" s="4"/>
       <c r="E512" s="3"/>
       <c r="F512" s="5"/>
-      <c r="G512" s="5"/>
+      <c r="G512" s="16"/>
       <c r="H512" s="1"/>
       <c r="I512" s="20"/>
       <c r="J512" s="1"/>
@@ -8725,7 +8745,7 @@
       <c r="D540" s="4"/>
       <c r="E540" s="3"/>
       <c r="F540" s="5"/>
-      <c r="G540" s="16"/>
+      <c r="G540" s="5"/>
       <c r="H540" s="1"/>
       <c r="I540" s="20"/>
       <c r="J540" s="1"/>
@@ -9791,7 +9811,7 @@
       <c r="D622" s="4"/>
       <c r="E622" s="3"/>
       <c r="F622" s="5"/>
-      <c r="G622" s="5"/>
+      <c r="G622" s="16"/>
       <c r="H622" s="1"/>
       <c r="I622" s="20"/>
       <c r="J622" s="1"/>
@@ -10038,7 +10058,7 @@
       <c r="D641" s="4"/>
       <c r="E641" s="3"/>
       <c r="F641" s="5"/>
-      <c r="G641" s="16"/>
+      <c r="G641" s="5"/>
       <c r="H641" s="1"/>
       <c r="I641" s="20"/>
       <c r="J641" s="1"/>
@@ -11052,7 +11072,7 @@
       <c r="D719" s="4"/>
       <c r="E719" s="3"/>
       <c r="F719" s="5"/>
-      <c r="G719" s="17"/>
+      <c r="G719" s="16"/>
       <c r="H719" s="1"/>
       <c r="I719" s="20"/>
       <c r="J719" s="1"/>
@@ -11091,7 +11111,7 @@
       <c r="D722" s="4"/>
       <c r="E722" s="3"/>
       <c r="F722" s="5"/>
-      <c r="G722" s="16"/>
+      <c r="G722" s="17"/>
       <c r="H722" s="1"/>
       <c r="I722" s="20"/>
       <c r="J722" s="1"/>
@@ -11325,7 +11345,7 @@
       <c r="D740" s="4"/>
       <c r="E740" s="3"/>
       <c r="F740" s="5"/>
-      <c r="G740" s="17"/>
+      <c r="G740" s="16"/>
       <c r="H740" s="1"/>
       <c r="I740" s="20"/>
       <c r="J740" s="1"/>
@@ -11494,7 +11514,7 @@
       <c r="D753" s="4"/>
       <c r="E753" s="3"/>
       <c r="F753" s="5"/>
-      <c r="G753" s="16"/>
+      <c r="G753" s="17"/>
       <c r="H753" s="1"/>
       <c r="I753" s="20"/>
       <c r="J753" s="1"/>
@@ -11650,7 +11670,7 @@
       <c r="D765" s="4"/>
       <c r="E765" s="3"/>
       <c r="F765" s="5"/>
-      <c r="G765" s="17"/>
+      <c r="G765" s="16"/>
       <c r="H765" s="1"/>
       <c r="I765" s="20"/>
       <c r="J765" s="1"/>
@@ -11728,7 +11748,7 @@
       <c r="D771" s="4"/>
       <c r="E771" s="3"/>
       <c r="F771" s="5"/>
-      <c r="G771" s="16"/>
+      <c r="G771" s="17"/>
       <c r="H771" s="1"/>
       <c r="I771" s="20"/>
       <c r="J771" s="1"/>
@@ -14414,10 +14434,10 @@
     </row>
     <row r="978" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A978" s="6"/>
-      <c r="B978" s="8"/>
-      <c r="C978" s="8"/>
-      <c r="D978" s="9"/>
-      <c r="E978" s="10"/>
+      <c r="B978" s="3"/>
+      <c r="C978" s="3"/>
+      <c r="D978" s="4"/>
+      <c r="E978" s="3"/>
       <c r="F978" s="5"/>
       <c r="G978" s="16"/>
       <c r="H978" s="1"/>
@@ -14612,7 +14632,7 @@
       <c r="B993" s="8"/>
       <c r="C993" s="8"/>
       <c r="D993" s="9"/>
-      <c r="E993" s="3"/>
+      <c r="E993" s="10"/>
       <c r="F993" s="5"/>
       <c r="G993" s="16"/>
       <c r="H993" s="1"/>
@@ -14869,9 +14889,9 @@
     </row>
     <row r="1013" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1013" s="6"/>
-      <c r="B1013" s="3"/>
-      <c r="C1013" s="3"/>
-      <c r="D1013" s="4"/>
+      <c r="B1013" s="8"/>
+      <c r="C1013" s="8"/>
+      <c r="D1013" s="9"/>
       <c r="E1013" s="3"/>
       <c r="F1013" s="5"/>
       <c r="G1013" s="16"/>
@@ -15246,11 +15266,11 @@
     </row>
     <row r="1042" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1042" s="6"/>
-      <c r="B1042" s="8"/>
-      <c r="C1042" s="8"/>
-      <c r="D1042" s="9"/>
-      <c r="E1042" s="10"/>
-      <c r="F1042" s="11"/>
+      <c r="B1042" s="3"/>
+      <c r="C1042" s="3"/>
+      <c r="D1042" s="4"/>
+      <c r="E1042" s="3"/>
+      <c r="F1042" s="5"/>
       <c r="G1042" s="16"/>
       <c r="H1042" s="1"/>
       <c r="I1042" s="20"/>
@@ -15324,11 +15344,11 @@
     </row>
     <row r="1048" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1048" s="6"/>
-      <c r="B1048" s="3"/>
-      <c r="C1048" s="3"/>
-      <c r="D1048" s="4"/>
-      <c r="E1048" s="3"/>
-      <c r="F1048" s="5"/>
+      <c r="B1048" s="8"/>
+      <c r="C1048" s="8"/>
+      <c r="D1048" s="9"/>
+      <c r="E1048" s="10"/>
+      <c r="F1048" s="11"/>
       <c r="G1048" s="16"/>
       <c r="H1048" s="1"/>
       <c r="I1048" s="20"/>
@@ -15686,20 +15706,20 @@
       <c r="J1075" s="1"/>
       <c r="K1075" s="20"/>
     </row>
-    <row r="1076" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1076" s="6"/>
       <c r="B1076" s="3"/>
       <c r="C1076" s="3"/>
       <c r="D1076" s="4"/>
       <c r="E1076" s="3"/>
       <c r="F1076" s="5"/>
-      <c r="G1076" s="17"/>
+      <c r="G1076" s="16"/>
       <c r="H1076" s="1"/>
       <c r="I1076" s="20"/>
       <c r="J1076" s="1"/>
       <c r="K1076" s="20"/>
     </row>
-    <row r="1077" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1077" s="6"/>
       <c r="B1077" s="3"/>
       <c r="C1077" s="3"/>
@@ -15875,7 +15895,7 @@
       <c r="D1090" s="4"/>
       <c r="E1090" s="3"/>
       <c r="F1090" s="5"/>
-      <c r="G1090" s="16"/>
+      <c r="G1090" s="17"/>
       <c r="H1090" s="1"/>
       <c r="I1090" s="20"/>
       <c r="J1090" s="1"/>
@@ -16083,7 +16103,7 @@
       <c r="D1106" s="4"/>
       <c r="E1106" s="3"/>
       <c r="F1106" s="5"/>
-      <c r="G1106" s="17"/>
+      <c r="G1106" s="16"/>
       <c r="H1106" s="1"/>
       <c r="I1106" s="20"/>
       <c r="J1106" s="1"/>
@@ -16421,7 +16441,7 @@
       <c r="D1132" s="4"/>
       <c r="E1132" s="3"/>
       <c r="F1132" s="5"/>
-      <c r="G1132" s="16"/>
+      <c r="G1132" s="17"/>
       <c r="H1132" s="1"/>
       <c r="I1132" s="20"/>
       <c r="J1132" s="1"/>
@@ -16681,7 +16701,7 @@
       <c r="D1152" s="4"/>
       <c r="E1152" s="3"/>
       <c r="F1152" s="5"/>
-      <c r="G1152" s="17"/>
+      <c r="G1152" s="16"/>
       <c r="H1152" s="1"/>
       <c r="I1152" s="20"/>
       <c r="J1152" s="1"/>
@@ -16759,7 +16779,7 @@
       <c r="D1158" s="4"/>
       <c r="E1158" s="3"/>
       <c r="F1158" s="5"/>
-      <c r="G1158" s="16"/>
+      <c r="G1158" s="17"/>
       <c r="H1158" s="1"/>
       <c r="I1158" s="20"/>
       <c r="J1158" s="1"/>
@@ -17760,7 +17780,7 @@
       <c r="D1235" s="4"/>
       <c r="E1235" s="3"/>
       <c r="F1235" s="5"/>
-      <c r="G1235" s="17"/>
+      <c r="G1235" s="16"/>
       <c r="H1235" s="1"/>
       <c r="I1235" s="20"/>
       <c r="J1235" s="1"/>
@@ -17942,7 +17962,7 @@
       <c r="D1249" s="4"/>
       <c r="E1249" s="3"/>
       <c r="F1249" s="5"/>
-      <c r="G1249" s="16"/>
+      <c r="G1249" s="17"/>
       <c r="H1249" s="1"/>
       <c r="I1249" s="20"/>
       <c r="J1249" s="1"/>
@@ -19515,7 +19535,7 @@
       <c r="D1370" s="4"/>
       <c r="E1370" s="3"/>
       <c r="F1370" s="5"/>
-      <c r="G1370" s="17"/>
+      <c r="G1370" s="16"/>
       <c r="H1370" s="1"/>
       <c r="I1370" s="20"/>
       <c r="J1370" s="1"/>
@@ -19580,7 +19600,7 @@
       <c r="D1375" s="4"/>
       <c r="E1375" s="3"/>
       <c r="F1375" s="5"/>
-      <c r="G1375" s="16"/>
+      <c r="G1375" s="17"/>
       <c r="H1375" s="1"/>
       <c r="I1375" s="20"/>
       <c r="J1375" s="1"/>
@@ -19671,7 +19691,7 @@
       <c r="D1382" s="4"/>
       <c r="E1382" s="3"/>
       <c r="F1382" s="5"/>
-      <c r="G1382" s="17"/>
+      <c r="G1382" s="16"/>
       <c r="H1382" s="1"/>
       <c r="I1382" s="20"/>
       <c r="J1382" s="1"/>
@@ -19801,7 +19821,7 @@
       <c r="D1392" s="4"/>
       <c r="E1392" s="3"/>
       <c r="F1392" s="5"/>
-      <c r="G1392" s="16"/>
+      <c r="G1392" s="17"/>
       <c r="H1392" s="1"/>
       <c r="I1392" s="20"/>
       <c r="J1392" s="1"/>
@@ -20464,7 +20484,7 @@
       <c r="D1443" s="4"/>
       <c r="E1443" s="3"/>
       <c r="F1443" s="5"/>
-      <c r="G1443" s="17"/>
+      <c r="G1443" s="16"/>
       <c r="H1443" s="1"/>
       <c r="I1443" s="20"/>
       <c r="J1443" s="1"/>
@@ -20620,7 +20640,7 @@
       <c r="D1455" s="4"/>
       <c r="E1455" s="3"/>
       <c r="F1455" s="5"/>
-      <c r="G1455" s="16"/>
+      <c r="G1455" s="17"/>
       <c r="H1455" s="1"/>
       <c r="I1455" s="20"/>
       <c r="J1455" s="1"/>
@@ -21863,11 +21883,11 @@
     </row>
     <row r="1551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1551" s="6"/>
-      <c r="B1551" s="1"/>
-      <c r="C1551" s="1"/>
-      <c r="D1551" s="1"/>
-      <c r="E1551" s="12"/>
-      <c r="F1551" s="1"/>
+      <c r="B1551" s="3"/>
+      <c r="C1551" s="3"/>
+      <c r="D1551" s="4"/>
+      <c r="E1551" s="3"/>
+      <c r="F1551" s="5"/>
       <c r="G1551" s="16"/>
       <c r="H1551" s="1"/>
       <c r="I1551" s="20"/>
@@ -21902,11 +21922,11 @@
     </row>
     <row r="1554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1554" s="6"/>
-      <c r="B1554" s="3"/>
-      <c r="C1554" s="3"/>
-      <c r="D1554" s="4"/>
-      <c r="E1554" s="3"/>
-      <c r="F1554" s="5"/>
+      <c r="B1554" s="1"/>
+      <c r="C1554" s="1"/>
+      <c r="D1554" s="1"/>
+      <c r="E1554" s="12"/>
+      <c r="F1554" s="1"/>
       <c r="G1554" s="16"/>
       <c r="H1554" s="1"/>
       <c r="I1554" s="20"/>
@@ -22798,7 +22818,7 @@
       <c r="K1622" s="20"/>
     </row>
     <row r="1623" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1623" s="14"/>
+      <c r="A1623" s="6"/>
       <c r="B1623" s="3"/>
       <c r="C1623" s="3"/>
       <c r="D1623" s="4"/>
@@ -22811,7 +22831,7 @@
       <c r="K1623" s="20"/>
     </row>
     <row r="1624" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1624" s="6"/>
+      <c r="A1624" s="14"/>
       <c r="B1624" s="3"/>
       <c r="C1624" s="3"/>
       <c r="D1624" s="4"/>
@@ -26216,8 +26236,21 @@
       <c r="J1885" s="1"/>
       <c r="K1885" s="20"/>
     </row>
+    <row r="1886" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1886" s="6"/>
+      <c r="B1886" s="3"/>
+      <c r="C1886" s="3"/>
+      <c r="D1886" s="4"/>
+      <c r="E1886" s="3"/>
+      <c r="F1886" s="5"/>
+      <c r="G1886" s="16"/>
+      <c r="H1886" s="1"/>
+      <c r="I1886" s="20"/>
+      <c r="J1886" s="1"/>
+      <c r="K1886" s="20"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K1871" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
+  <autoFilter ref="A1:K1872" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="landscape" r:id="rId1"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/UZ/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\UZ\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7E8F31-8959-4F41-9D9C-3793C5E43CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C09D7-DF40-4D01-A1C1-7B77A64A6B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,12 +274,6 @@
   </si>
   <si>
     <t>P001909</t>
-  </si>
-  <si>
-    <t>P003905</t>
-  </si>
-  <si>
-    <t>Сосиски «Вязанка Сливочные» Весовые П/а мгс ТМ «Вязанка»</t>
   </si>
   <si>
     <t>SU003167</t>
@@ -619,6 +613,12 @@
   </si>
   <si>
     <t>со слов Сверчкова</t>
+  </si>
+  <si>
+    <t>P003988</t>
+  </si>
+  <si>
+    <t>Сосиски «Сливочные Вязанка» Весовой п/а мгс ТМ «Вязанка»</t>
   </si>
 </sst>
 </file>
@@ -1145,18 +1145,18 @@
         <v>80</v>
       </c>
       <c r="I1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="K1" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>52</v>
@@ -1181,13 +1181,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" s="4">
         <v>4301020334</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="4" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>41</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="5" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>43</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="6" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>75</v>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7" s="4">
         <v>4301031350</v>
@@ -1296,7 +1296,7 @@
         <v>4680115883093</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="1"/>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="8" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D8" s="4">
         <v>4301031353</v>
@@ -1321,7 +1321,7 @@
         <v>4680115883109</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="1"/>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="9" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="10" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="11" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="12" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>16</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="14" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>69</v>
@@ -1471,7 +1471,7 @@
         <v>4607091383416</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="1"/>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="15" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>61</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="16" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D16" s="4">
         <v>4301051687</v>
@@ -1521,7 +1521,7 @@
         <v>4680115880214</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="1"/>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="4">
         <v>4301051656</v>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="18" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" s="4">
         <v>4301051666</v>
@@ -1571,7 +1571,7 @@
         <v>4680115880092</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="1"/>
@@ -1581,13 +1581,13 @@
     </row>
     <row r="19" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" s="4">
         <v>4301051668</v>
@@ -1596,7 +1596,7 @@
         <v>4680115880221</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="1"/>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="20" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="21" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>30</v>
@@ -1646,7 +1646,7 @@
         <v>4680115881617</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="1"/>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="22" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>73</v>
@@ -1671,7 +1671,7 @@
         <v>4680115881969</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="1"/>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="23" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D23" s="4">
         <v>4301051901</v>
@@ -1696,7 +1696,7 @@
         <v>4680115881976</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="1"/>
@@ -1706,13 +1706,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D24" s="4">
         <v>4301051461</v>
@@ -1721,7 +1721,7 @@
         <v>4680115883604</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="1"/>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="25" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D25" s="4">
         <v>4301051437</v>
@@ -1746,7 +1746,7 @@
         <v>4607091386967</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="1"/>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D26" s="4">
         <v>4301051721</v>
@@ -1771,7 +1771,7 @@
         <v>4607091385748</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="1"/>
@@ -1781,22 +1781,22 @@
     </row>
     <row r="27" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="D27" s="4">
-        <v>4301051625</v>
+        <v>4301051724</v>
       </c>
       <c r="E27" s="3">
         <v>4607091385168</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="1"/>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="28" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>34</v>
@@ -1831,13 +1831,13 @@
     </row>
     <row r="29" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" s="4">
         <v>4301011851</v>
@@ -1846,7 +1846,7 @@
         <v>4680115885820</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="1"/>
@@ -1856,13 +1856,13 @@
     </row>
     <row r="30" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="4">
         <v>4301011867</v>
@@ -1871,7 +1871,7 @@
         <v>4680115884830</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="1"/>
@@ -1881,13 +1881,13 @@
     </row>
     <row r="31" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D31" s="4">
         <v>4301011868</v>
@@ -1896,7 +1896,7 @@
         <v>4680115884861</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="1"/>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="32" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" s="4">
         <v>4301011869</v>
@@ -1921,7 +1921,7 @@
         <v>4680115884847</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="1"/>
@@ -1931,13 +1931,13 @@
     </row>
     <row r="33" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" s="4">
         <v>4301011870</v>
@@ -1946,7 +1946,7 @@
         <v>4680115884854</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="1"/>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="34" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="4">
         <v>4301011871</v>
@@ -1971,7 +1971,7 @@
         <v>4680115884908</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="1"/>
@@ -1981,13 +1981,13 @@
     </row>
     <row r="35" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" s="4">
         <v>4301011875</v>
@@ -1996,7 +1996,7 @@
         <v>4680115884885</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="1"/>
@@ -2006,13 +2006,13 @@
     </row>
     <row r="36" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" s="4">
         <v>4301011952</v>
@@ -2021,7 +2021,7 @@
         <v>4680115884922</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="1"/>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="37" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>54</v>
@@ -2056,13 +2056,13 @@
     </row>
     <row r="38" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" s="4">
         <v>4301051899</v>
@@ -2071,7 +2071,7 @@
         <v>4607091384246</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="1"/>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="39" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D39" s="4">
         <v>4301011376</v>
@@ -2096,7 +2096,7 @@
         <v>4680115885226</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="1"/>
@@ -2106,13 +2106,13 @@
     </row>
     <row r="40" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D40" s="4">
         <v>4301011376</v>
@@ -2121,10 +2121,10 @@
         <v>4680115885226</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="20"/>
@@ -2133,13 +2133,13 @@
     </row>
     <row r="41" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="4">
         <v>4301031349</v>
@@ -2148,7 +2148,7 @@
         <v>4680115883116</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="1"/>
@@ -2158,13 +2158,13 @@
     </row>
     <row r="42" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D42" s="4">
         <v>4301051660</v>
@@ -2173,7 +2173,7 @@
         <v>4607091384253</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="1"/>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="4">
         <v>4301060441</v>
@@ -2198,7 +2198,7 @@
         <v>4607091389357</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="1"/>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="44" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>0</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="45" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>2</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="46" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>8</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>6</v>
@@ -2308,13 +2308,13 @@
     </row>
     <row r="48" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D48" s="4">
         <v>4301011415</v>
@@ -2323,7 +2323,7 @@
         <v>4680115880429</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="1"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C09D7-DF40-4D01-A1C1-7B77A64A6B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC5D8A6-CAB6-4AE8-8004-EFC438A45DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,12 +582,6 @@
     <t>Сосиски «Сочные без свинины» Весовой п/а ТМ «Особый рецепт»</t>
   </si>
   <si>
-    <t>P003328</t>
-  </si>
-  <si>
-    <t>Сосиски «Вязанка Молочные» Весовые П/а мгс ТМ «Вязанка»</t>
-  </si>
-  <si>
     <t>Вареные колбасы «Молочная» Весовой п/а ТМ «Особый рецепт»</t>
   </si>
   <si>
@@ -619,6 +613,12 @@
   </si>
   <si>
     <t>Сосиски «Сливочные Вязанка» Весовой п/а мгс ТМ «Вязанка»</t>
+  </si>
+  <si>
+    <t>P003986</t>
+  </si>
+  <si>
+    <t>Сосиски «Молокуши (Вязанка Молочные)» Весовой п/а мгс ТМ «Вязанка»</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1103,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1512,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="4">
         <v>4301051687</v>
@@ -1521,7 +1521,7 @@
         <v>4680115880214</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="1"/>
@@ -1737,16 +1737,16 @@
         <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D25" s="4">
-        <v>4301051437</v>
+        <v>4301051712</v>
       </c>
       <c r="E25" s="3">
         <v>4607091386967</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="1"/>
@@ -1762,7 +1762,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D26" s="4">
         <v>4301051721</v>
@@ -1771,7 +1771,7 @@
         <v>4607091385748</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="1"/>
@@ -1787,7 +1787,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D27" s="4">
         <v>4301051724</v>
@@ -1796,7 +1796,7 @@
         <v>4607091385168</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="1"/>
@@ -1921,7 +1921,7 @@
         <v>4680115884847</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="1"/>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="39" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>101</v>
@@ -2124,7 +2124,7 @@
         <v>103</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="20"/>
@@ -2164,7 +2164,7 @@
         <v>59</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D42" s="4">
         <v>4301051660</v>
@@ -2173,7 +2173,7 @@
         <v>4607091384253</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="1"/>

--- a/в бланки заводов/ПОКОМ КИ/pokom_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ КИ/pokom_ki/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ КИ\pokom_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC5D8A6-CAB6-4AE8-8004-EFC438A45DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB0791E-E7FD-4C45-A4B0-0A8099398CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,25 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$K$1872</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$K$1870</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="258">
   <si>
     <t>SU002829</t>
   </si>
@@ -620,6 +626,189 @@
   <si>
     <t>Сосиски «Молокуши (Вязанка Молочные)» Весовой п/а мгс ТМ «Вязанка»</t>
   </si>
+  <si>
+    <t>Сосиски «Ганноверские» Фикс.вес 0,5 П/а мгс ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>Сервелат Филедворский  350 г</t>
+  </si>
+  <si>
+    <t>Колбаса полукопченая Кракушка  Фасовка: 280 г </t>
+  </si>
+  <si>
+    <t>Сосиски Ганноверские 1.350 г   </t>
+  </si>
+  <si>
+    <t>Сосиски «Сочинки Сливочные» Фикс.вес 0,4 п/а мгс ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>Вареные колбасы Докторская ГОСТ Золоченная в печи Весовые ц/о в/у Стародворье</t>
+  </si>
+  <si>
+    <t>Вареные колбасы «Филедворская со шпиком по-стародворски» Весовой п/а ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>Сосиски Сочинки по-баварски Бавария Фикс.вес 0,4 П/а мгс Стародворье</t>
+  </si>
+  <si>
+    <t>Сосиски «Венские» ф/в 0,6 п/а ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>В/к колбасы Зернистый Бордо Весовые Фиброуз в/у Стародворье</t>
+  </si>
+  <si>
+    <t>Сардельки «Шпикачки Стародворские» Весовой NDX ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>Сардельки «Стародворские с говядиной» Весовые NDX ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>Колбаса полукопченая Мясорубская  Фасовка: 280 г  </t>
+  </si>
+  <si>
+    <t>Вареные колбасы Классическая Вязанка Фикс.вес 0,6 Вектор Вязанка</t>
+  </si>
+  <si>
+    <t>Сосиски «Молокуши» ф/в 0,45 п/а мгс ТМ «Вязанка»</t>
+  </si>
+  <si>
+    <t>Вареные колбасы Сливушка Вязанка Фикс.вес 0,75 П/а Вязанка</t>
+  </si>
+  <si>
+    <t>Сардельки «Сливушки» фикс.вес 0,33 п/а мгс ТМ «Вязанка»</t>
+  </si>
+  <si>
+    <t>Копченые колбасы «Салями Филейбургская зернистая» Весовой фиброуз ТМ «Баварушка»</t>
+  </si>
+  <si>
+    <t>В/к колбасы Сервелат Филейбургский с филе сочного окорока срез Филейбургская Фикс.вес 0,35 Фиброуз в/у Баварушка</t>
+  </si>
+  <si>
+    <t>SU003333</t>
+  </si>
+  <si>
+    <t>SU002617</t>
+  </si>
+  <si>
+    <t>SU002252</t>
+  </si>
+  <si>
+    <t>SU001340</t>
+  </si>
+  <si>
+    <t>SU002844</t>
+  </si>
+  <si>
+    <t>SU002201</t>
+  </si>
+  <si>
+    <t>SU003391</t>
+  </si>
+  <si>
+    <t>SU002799</t>
+  </si>
+  <si>
+    <t>SU003340</t>
+  </si>
+  <si>
+    <t>SU001820</t>
+  </si>
+  <si>
+    <t>SU001430</t>
+  </si>
+  <si>
+    <t>SU000227</t>
+  </si>
+  <si>
+    <t>SU003046</t>
+  </si>
+  <si>
+    <t>SU002674</t>
+  </si>
+  <si>
+    <t>SU001718</t>
+  </si>
+  <si>
+    <t>SU002827</t>
+  </si>
+  <si>
+    <t>SU002367</t>
+  </si>
+  <si>
+    <t>SU002614</t>
+  </si>
+  <si>
+    <t>SU002606</t>
+  </si>
+  <si>
+    <t>P004082</t>
+  </si>
+  <si>
+    <t>P004229</t>
+  </si>
+  <si>
+    <t>P002461</t>
+  </si>
+  <si>
+    <t>P002209</t>
+  </si>
+  <si>
+    <t>P003265</t>
+  </si>
+  <si>
+    <t>P002567</t>
+  </si>
+  <si>
+    <t>P004209</t>
+  </si>
+  <si>
+    <t>P003217</t>
+  </si>
+  <si>
+    <t>P004090</t>
+  </si>
+  <si>
+    <t>P001820</t>
+  </si>
+  <si>
+    <t>P004913</t>
+  </si>
+  <si>
+    <t>P002536</t>
+  </si>
+  <si>
+    <t>P003598</t>
+  </si>
+  <si>
+    <t>P003045</t>
+  </si>
+  <si>
+    <t>P003985</t>
+  </si>
+  <si>
+    <t>P003233</t>
+  </si>
+  <si>
+    <t>P002644</t>
+  </si>
+  <si>
+    <t>P004898</t>
+  </si>
+  <si>
+    <t>P004521</t>
+  </si>
+  <si>
+    <t>В/к колбасы Сервелат Филедворский срез Бордо Фикс.вес 0,35 фиброуз в/у стародворье</t>
+  </si>
+  <si>
+    <t>П/к колбасы Кракушка пряная с сальцем Бавария Фикс.вес 0,3 н/о в/у Стародворье</t>
+  </si>
+  <si>
+    <t>Сосиски Ганноверские Бордо Весовые П/а мгс Баварушка</t>
+  </si>
+  <si>
+    <t>П/к колбасы «Мясорубская» ф/в 0,28 н/о ТМ «Стародворье»</t>
+  </si>
 </sst>
 </file>
 
@@ -1099,11 +1288,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K1886"/>
+  <dimension ref="A1:K1884"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1454,7 @@
         <v>76</v>
       </c>
       <c r="D6" s="4">
-        <v>4301020262</v>
+        <v>4301020261</v>
       </c>
       <c r="E6" s="3">
         <v>4680115882935</v>
@@ -2381,39 +2570,75 @@
       <c r="J50" s="1"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="5"/>
+    <row r="51" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4301051734</v>
+      </c>
+      <c r="E51" s="3">
+        <v>4680115884588</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="G51" s="16"/>
       <c r="H51" s="1"/>
       <c r="I51" s="20"/>
       <c r="J51" s="1"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="5"/>
+    <row r="52" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="4">
+        <v>4301031305</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4607091389845</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="G52" s="16"/>
       <c r="H52" s="1"/>
       <c r="I52" s="20"/>
       <c r="J52" s="1"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="5"/>
+    <row r="53" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" s="4">
+        <v>4301031066</v>
+      </c>
+      <c r="E53" s="3">
+        <v>4607091383836</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="G53" s="16"/>
       <c r="H53" s="1"/>
       <c r="I53" s="20"/>
@@ -2421,64 +2646,124 @@
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="5"/>
+      <c r="A54" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="4">
+        <v>4301051100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4607091387766</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="G54" s="16"/>
       <c r="H54" s="1"/>
       <c r="I54" s="20"/>
       <c r="J54" s="1"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="5"/>
+    <row r="55" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" s="4">
+        <v>4301051410</v>
+      </c>
+      <c r="E55" s="3">
+        <v>4680115882164</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="G55" s="16"/>
       <c r="H55" s="1"/>
       <c r="I55" s="20"/>
       <c r="J55" s="1"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="5"/>
+    <row r="56" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" s="4">
+        <v>4301011223</v>
+      </c>
+      <c r="E56" s="3">
+        <v>4607091383423</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="G56" s="16"/>
       <c r="H56" s="1"/>
       <c r="I56" s="20"/>
       <c r="J56" s="1"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="5"/>
+    <row r="57" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" s="4">
+        <v>4301011853</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4680115885851</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="G57" s="16"/>
       <c r="H57" s="1"/>
       <c r="I57" s="20"/>
       <c r="J57" s="1"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="5"/>
+    <row r="58" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4301051388</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4680115881211</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="G58" s="16"/>
       <c r="H58" s="1"/>
       <c r="I58" s="20"/>
@@ -2486,51 +2771,99 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="5"/>
+      <c r="A59" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" s="4">
+        <v>4301051782</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4680115884618</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="G59" s="16"/>
       <c r="H59" s="1"/>
       <c r="I59" s="20"/>
       <c r="J59" s="1"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="5"/>
+    <row r="60" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="4">
+        <v>4301030878</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4607091387193</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="G60" s="16"/>
       <c r="H60" s="1"/>
       <c r="I60" s="20"/>
       <c r="J60" s="1"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="5"/>
+    <row r="61" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="4">
+        <v>4301060484</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4607091380897</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="G61" s="16"/>
       <c r="H61" s="1"/>
       <c r="I61" s="20"/>
       <c r="J61" s="1"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="5"/>
+    <row r="62" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" s="4">
+        <v>4301060406</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4607091384482</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="G62" s="16"/>
       <c r="H62" s="1"/>
       <c r="I62" s="20"/>
@@ -2538,25 +2871,49 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="5"/>
+      <c r="A63" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" s="4">
+        <v>4301031245</v>
+      </c>
+      <c r="E63" s="3">
+        <v>4680115883963</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="G63" s="16"/>
       <c r="H63" s="1"/>
       <c r="I63" s="20"/>
       <c r="J63" s="1"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="5"/>
+    <row r="64" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="4">
+        <v>4301011386</v>
+      </c>
+      <c r="E64" s="3">
+        <v>4680115880283</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="G64" s="16"/>
       <c r="H64" s="1"/>
       <c r="I64" s="20"/>
@@ -2564,25 +2921,49 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="5"/>
+      <c r="A65" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D65" s="4">
+        <v>4301051718</v>
+      </c>
+      <c r="E65" s="3">
+        <v>4607091385731</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="G65" s="16"/>
       <c r="H65" s="1"/>
       <c r="I65" s="20"/>
       <c r="J65" s="1"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="5"/>
+    <row r="66" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="4">
+        <v>4301011462</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4680115881457</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="G66" s="16"/>
       <c r="H66" s="1"/>
       <c r="I66" s="20"/>
@@ -2590,51 +2971,99 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="5"/>
+      <c r="A67" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" s="4">
+        <v>4301060317</v>
+      </c>
+      <c r="E67" s="3">
+        <v>4680115880238</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="G67" s="16"/>
       <c r="H67" s="1"/>
       <c r="I67" s="20"/>
       <c r="J67" s="1"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="5"/>
+    <row r="68" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D68" s="4">
+        <v>4301011853</v>
+      </c>
+      <c r="E68" s="3">
+        <v>4680115885851</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="G68" s="16"/>
       <c r="H68" s="1"/>
       <c r="I68" s="20"/>
       <c r="J68" s="1"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="5"/>
+    <row r="69" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69" s="4">
+        <v>4301031405</v>
+      </c>
+      <c r="E69" s="3">
+        <v>4680115886100</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="G69" s="16"/>
       <c r="H69" s="1"/>
       <c r="I69" s="20"/>
       <c r="J69" s="1"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="5"/>
+    <row r="70" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" s="4">
+        <v>4301031358</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4607091389531</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="G70" s="16"/>
       <c r="H70" s="1"/>
       <c r="I70" s="20"/>
@@ -2862,7 +3291,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2875,7 +3304,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2888,7 +3317,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2901,7 +3330,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5605,7 +6034,7 @@
       <c r="J298" s="1"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -5631,7 +6060,7 @@
       <c r="J300" s="1"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -5651,7 +6080,7 @@
       <c r="D302" s="4"/>
       <c r="E302" s="3"/>
       <c r="F302" s="5"/>
-      <c r="G302" s="16"/>
+      <c r="G302" s="17"/>
       <c r="H302" s="1"/>
       <c r="I302" s="20"/>
       <c r="J302" s="1"/>
@@ -5664,7 +6093,7 @@
       <c r="D303" s="4"/>
       <c r="E303" s="3"/>
       <c r="F303" s="5"/>
-      <c r="G303" s="16"/>
+      <c r="G303" s="17"/>
       <c r="H303" s="1"/>
       <c r="I303" s="20"/>
       <c r="J303" s="1"/>
@@ -5768,20 +6197,20 @@
       <c r="D311" s="4"/>
       <c r="E311" s="3"/>
       <c r="F311" s="5"/>
-      <c r="G311" s="17"/>
+      <c r="G311" s="16"/>
       <c r="H311" s="1"/>
       <c r="I311" s="20"/>
       <c r="J311" s="1"/>
       <c r="K311" s="20"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="6"/>
+      <c r="A312" s="15"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="4"/>
       <c r="E312" s="3"/>
       <c r="F312" s="5"/>
-      <c r="G312" s="17"/>
+      <c r="G312" s="16"/>
       <c r="H312" s="1"/>
       <c r="I312" s="20"/>
       <c r="J312" s="1"/>
@@ -5801,7 +6230,7 @@
       <c r="K313" s="20"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="15"/>
+      <c r="A314" s="6"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="4"/>
@@ -5898,7 +6327,7 @@
       <c r="D321" s="4"/>
       <c r="E321" s="3"/>
       <c r="F321" s="5"/>
-      <c r="G321" s="16"/>
+      <c r="G321" s="18"/>
       <c r="H321" s="1"/>
       <c r="I321" s="20"/>
       <c r="J321" s="1"/>
@@ -5911,7 +6340,7 @@
       <c r="D322" s="4"/>
       <c r="E322" s="3"/>
       <c r="F322" s="5"/>
-      <c r="G322" s="16"/>
+      <c r="G322" s="18"/>
       <c r="H322" s="1"/>
       <c r="I322" s="20"/>
       <c r="J322" s="1"/>
@@ -5924,7 +6353,7 @@
       <c r="D323" s="4"/>
       <c r="E323" s="3"/>
       <c r="F323" s="5"/>
-      <c r="G323" s="18"/>
+      <c r="G323" s="16"/>
       <c r="H323" s="1"/>
       <c r="I323" s="20"/>
       <c r="J323" s="1"/>
@@ -5937,7 +6366,7 @@
       <c r="D324" s="4"/>
       <c r="E324" s="3"/>
       <c r="F324" s="5"/>
-      <c r="G324" s="18"/>
+      <c r="G324" s="16"/>
       <c r="H324" s="1"/>
       <c r="I324" s="20"/>
       <c r="J324" s="1"/>
@@ -8368,7 +8797,7 @@
       <c r="D511" s="4"/>
       <c r="E511" s="3"/>
       <c r="F511" s="5"/>
-      <c r="G511" s="16"/>
+      <c r="G511" s="5"/>
       <c r="H511" s="1"/>
       <c r="I511" s="20"/>
       <c r="J511" s="1"/>
@@ -8381,7 +8810,7 @@
       <c r="D512" s="4"/>
       <c r="E512" s="3"/>
       <c r="F512" s="5"/>
-      <c r="G512" s="16"/>
+      <c r="G512" s="5"/>
       <c r="H512" s="1"/>
       <c r="I512" s="20"/>
       <c r="J512" s="1"/>
@@ -8732,7 +9161,7 @@
       <c r="D539" s="4"/>
       <c r="E539" s="3"/>
       <c r="F539" s="5"/>
-      <c r="G539" s="5"/>
+      <c r="G539" s="16"/>
       <c r="H539" s="1"/>
       <c r="I539" s="20"/>
       <c r="J539" s="1"/>
@@ -8745,7 +9174,7 @@
       <c r="D540" s="4"/>
       <c r="E540" s="3"/>
       <c r="F540" s="5"/>
-      <c r="G540" s="5"/>
+      <c r="G540" s="16"/>
       <c r="H540" s="1"/>
       <c r="I540" s="20"/>
       <c r="J540" s="1"/>
@@ -9798,7 +10227,7 @@
       <c r="D621" s="4"/>
       <c r="E621" s="3"/>
       <c r="F621" s="5"/>
-      <c r="G621" s="16"/>
+      <c r="G621" s="5"/>
       <c r="H621" s="1"/>
       <c r="I621" s="20"/>
       <c r="J621" s="1"/>
@@ -9811,7 +10240,7 @@
       <c r="D622" s="4"/>
       <c r="E622" s="3"/>
       <c r="F622" s="5"/>
-      <c r="G622" s="16"/>
+      <c r="G622" s="5"/>
       <c r="H622" s="1"/>
       <c r="I622" s="20"/>
       <c r="J622" s="1"/>
@@ -10045,7 +10474,7 @@
       <c r="D640" s="4"/>
       <c r="E640" s="3"/>
       <c r="F640" s="5"/>
-      <c r="G640" s="5"/>
+      <c r="G640" s="16"/>
       <c r="H640" s="1"/>
       <c r="I640" s="20"/>
       <c r="J640" s="1"/>
@@ -10058,7 +10487,7 @@
       <c r="D641" s="4"/>
       <c r="E641" s="3"/>
       <c r="F641" s="5"/>
-      <c r="G641" s="5"/>
+      <c r="G641" s="16"/>
       <c r="H641" s="1"/>
       <c r="I641" s="20"/>
       <c r="J641" s="1"/>
@@ -11059,7 +11488,7 @@
       <c r="D718" s="4"/>
       <c r="E718" s="3"/>
       <c r="F718" s="5"/>
-      <c r="G718" s="16"/>
+      <c r="G718" s="17"/>
       <c r="H718" s="1"/>
       <c r="I718" s="20"/>
       <c r="J718" s="1"/>
@@ -11072,7 +11501,7 @@
       <c r="D719" s="4"/>
       <c r="E719" s="3"/>
       <c r="F719" s="5"/>
-      <c r="G719" s="16"/>
+      <c r="G719" s="17"/>
       <c r="H719" s="1"/>
       <c r="I719" s="20"/>
       <c r="J719" s="1"/>
@@ -11098,7 +11527,7 @@
       <c r="D721" s="4"/>
       <c r="E721" s="3"/>
       <c r="F721" s="5"/>
-      <c r="G721" s="17"/>
+      <c r="G721" s="16"/>
       <c r="H721" s="1"/>
       <c r="I721" s="20"/>
       <c r="J721" s="1"/>
@@ -11111,7 +11540,7 @@
       <c r="D722" s="4"/>
       <c r="E722" s="3"/>
       <c r="F722" s="5"/>
-      <c r="G722" s="17"/>
+      <c r="G722" s="16"/>
       <c r="H722" s="1"/>
       <c r="I722" s="20"/>
       <c r="J722" s="1"/>
@@ -11332,7 +11761,7 @@
       <c r="D739" s="4"/>
       <c r="E739" s="3"/>
       <c r="F739" s="5"/>
-      <c r="G739" s="16"/>
+      <c r="G739" s="17"/>
       <c r="H739" s="1"/>
       <c r="I739" s="20"/>
       <c r="J739" s="1"/>
@@ -11345,7 +11774,7 @@
       <c r="D740" s="4"/>
       <c r="E740" s="3"/>
       <c r="F740" s="5"/>
-      <c r="G740" s="16"/>
+      <c r="G740" s="17"/>
       <c r="H740" s="1"/>
       <c r="I740" s="20"/>
       <c r="J740" s="1"/>
@@ -11501,7 +11930,7 @@
       <c r="D752" s="4"/>
       <c r="E752" s="3"/>
       <c r="F752" s="5"/>
-      <c r="G752" s="17"/>
+      <c r="G752" s="16"/>
       <c r="H752" s="1"/>
       <c r="I752" s="20"/>
       <c r="J752" s="1"/>
@@ -11514,7 +11943,7 @@
       <c r="D753" s="4"/>
       <c r="E753" s="3"/>
       <c r="F753" s="5"/>
-      <c r="G753" s="17"/>
+      <c r="G753" s="16"/>
       <c r="H753" s="1"/>
       <c r="I753" s="20"/>
       <c r="J753" s="1"/>
@@ -11657,7 +12086,7 @@
       <c r="D764" s="4"/>
       <c r="E764" s="3"/>
       <c r="F764" s="5"/>
-      <c r="G764" s="16"/>
+      <c r="G764" s="17"/>
       <c r="H764" s="1"/>
       <c r="I764" s="20"/>
       <c r="J764" s="1"/>
@@ -11670,7 +12099,7 @@
       <c r="D765" s="4"/>
       <c r="E765" s="3"/>
       <c r="F765" s="5"/>
-      <c r="G765" s="16"/>
+      <c r="G765" s="17"/>
       <c r="H765" s="1"/>
       <c r="I765" s="20"/>
       <c r="J765" s="1"/>
@@ -11735,7 +12164,7 @@
       <c r="D770" s="4"/>
       <c r="E770" s="3"/>
       <c r="F770" s="5"/>
-      <c r="G770" s="17"/>
+      <c r="G770" s="16"/>
       <c r="H770" s="1"/>
       <c r="I770" s="20"/>
       <c r="J770" s="1"/>
@@ -11748,7 +12177,7 @@
       <c r="D771" s="4"/>
       <c r="E771" s="3"/>
       <c r="F771" s="5"/>
-      <c r="G771" s="17"/>
+      <c r="G771" s="16"/>
       <c r="H771" s="1"/>
       <c r="I771" s="20"/>
       <c r="J771" s="1"/>
@@ -14421,10 +14850,10 @@
     </row>
     <row r="977" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A977" s="6"/>
-      <c r="B977" s="3"/>
-      <c r="C977" s="3"/>
-      <c r="D977" s="4"/>
-      <c r="E977" s="3"/>
+      <c r="B977" s="8"/>
+      <c r="C977" s="8"/>
+      <c r="D977" s="9"/>
+      <c r="E977" s="10"/>
       <c r="F977" s="5"/>
       <c r="G977" s="16"/>
       <c r="H977" s="1"/>
@@ -14434,10 +14863,10 @@
     </row>
     <row r="978" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A978" s="6"/>
-      <c r="B978" s="3"/>
-      <c r="C978" s="3"/>
-      <c r="D978" s="4"/>
-      <c r="E978" s="3"/>
+      <c r="B978" s="8"/>
+      <c r="C978" s="8"/>
+      <c r="D978" s="9"/>
+      <c r="E978" s="10"/>
       <c r="F978" s="5"/>
       <c r="G978" s="16"/>
       <c r="H978" s="1"/>
@@ -14619,7 +15048,7 @@
       <c r="B992" s="8"/>
       <c r="C992" s="8"/>
       <c r="D992" s="9"/>
-      <c r="E992" s="10"/>
+      <c r="E992" s="3"/>
       <c r="F992" s="5"/>
       <c r="G992" s="16"/>
       <c r="H992" s="1"/>
@@ -14632,7 +15061,7 @@
       <c r="B993" s="8"/>
       <c r="C993" s="8"/>
       <c r="D993" s="9"/>
-      <c r="E993" s="10"/>
+      <c r="E993" s="3"/>
       <c r="F993" s="5"/>
       <c r="G993" s="16"/>
       <c r="H993" s="1"/>
@@ -14876,9 +15305,9 @@
     </row>
     <row r="1012" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1012" s="6"/>
-      <c r="B1012" s="8"/>
-      <c r="C1012" s="8"/>
-      <c r="D1012" s="9"/>
+      <c r="B1012" s="3"/>
+      <c r="C1012" s="3"/>
+      <c r="D1012" s="4"/>
       <c r="E1012" s="3"/>
       <c r="F1012" s="5"/>
       <c r="G1012" s="16"/>
@@ -14889,9 +15318,9 @@
     </row>
     <row r="1013" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1013" s="6"/>
-      <c r="B1013" s="8"/>
-      <c r="C1013" s="8"/>
-      <c r="D1013" s="9"/>
+      <c r="B1013" s="3"/>
+      <c r="C1013" s="3"/>
+      <c r="D1013" s="4"/>
       <c r="E1013" s="3"/>
       <c r="F1013" s="5"/>
       <c r="G1013" s="16"/>
@@ -15253,11 +15682,11 @@
     </row>
     <row r="1041" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1041" s="6"/>
-      <c r="B1041" s="3"/>
-      <c r="C1041" s="3"/>
-      <c r="D1041" s="4"/>
-      <c r="E1041" s="3"/>
-      <c r="F1041" s="5"/>
+      <c r="B1041" s="8"/>
+      <c r="C1041" s="8"/>
+      <c r="D1041" s="9"/>
+      <c r="E1041" s="10"/>
+      <c r="F1041" s="11"/>
       <c r="G1041" s="16"/>
       <c r="H1041" s="1"/>
       <c r="I1041" s="20"/>
@@ -15266,11 +15695,11 @@
     </row>
     <row r="1042" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1042" s="6"/>
-      <c r="B1042" s="3"/>
-      <c r="C1042" s="3"/>
-      <c r="D1042" s="4"/>
-      <c r="E1042" s="3"/>
-      <c r="F1042" s="5"/>
+      <c r="B1042" s="8"/>
+      <c r="C1042" s="8"/>
+      <c r="D1042" s="9"/>
+      <c r="E1042" s="10"/>
+      <c r="F1042" s="11"/>
       <c r="G1042" s="16"/>
       <c r="H1042" s="1"/>
       <c r="I1042" s="20"/>
@@ -15331,11 +15760,11 @@
     </row>
     <row r="1047" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1047" s="6"/>
-      <c r="B1047" s="8"/>
-      <c r="C1047" s="8"/>
-      <c r="D1047" s="9"/>
-      <c r="E1047" s="10"/>
-      <c r="F1047" s="11"/>
+      <c r="B1047" s="3"/>
+      <c r="C1047" s="3"/>
+      <c r="D1047" s="4"/>
+      <c r="E1047" s="3"/>
+      <c r="F1047" s="5"/>
       <c r="G1047" s="16"/>
       <c r="H1047" s="1"/>
       <c r="I1047" s="20"/>
@@ -15344,11 +15773,11 @@
     </row>
     <row r="1048" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1048" s="6"/>
-      <c r="B1048" s="8"/>
-      <c r="C1048" s="8"/>
-      <c r="D1048" s="9"/>
-      <c r="E1048" s="10"/>
-      <c r="F1048" s="11"/>
+      <c r="B1048" s="3"/>
+      <c r="C1048" s="3"/>
+      <c r="D1048" s="4"/>
+      <c r="E1048" s="3"/>
+      <c r="F1048" s="5"/>
       <c r="G1048" s="16"/>
       <c r="H1048" s="1"/>
       <c r="I1048" s="20"/>
@@ -15693,14 +16122,14 @@
       <c r="J1074" s="1"/>
       <c r="K1074" s="20"/>
     </row>
-    <row r="1075" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1075" s="6"/>
       <c r="B1075" s="3"/>
       <c r="C1075" s="3"/>
       <c r="D1075" s="4"/>
       <c r="E1075" s="3"/>
       <c r="F1075" s="5"/>
-      <c r="G1075" s="16"/>
+      <c r="G1075" s="17"/>
       <c r="H1075" s="1"/>
       <c r="I1075" s="20"/>
       <c r="J1075" s="1"/>
@@ -15713,13 +16142,13 @@
       <c r="D1076" s="4"/>
       <c r="E1076" s="3"/>
       <c r="F1076" s="5"/>
-      <c r="G1076" s="16"/>
+      <c r="G1076" s="17"/>
       <c r="H1076" s="1"/>
       <c r="I1076" s="20"/>
       <c r="J1076" s="1"/>
       <c r="K1076" s="20"/>
     </row>
-    <row r="1077" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1077" s="6"/>
       <c r="B1077" s="3"/>
       <c r="C1077" s="3"/>
@@ -15882,7 +16311,7 @@
       <c r="D1089" s="4"/>
       <c r="E1089" s="3"/>
       <c r="F1089" s="5"/>
-      <c r="G1089" s="17"/>
+      <c r="G1089" s="16"/>
       <c r="H1089" s="1"/>
       <c r="I1089" s="20"/>
       <c r="J1089" s="1"/>
@@ -15895,7 +16324,7 @@
       <c r="D1090" s="4"/>
       <c r="E1090" s="3"/>
       <c r="F1090" s="5"/>
-      <c r="G1090" s="17"/>
+      <c r="G1090" s="16"/>
       <c r="H1090" s="1"/>
       <c r="I1090" s="20"/>
       <c r="J1090" s="1"/>
@@ -16090,7 +16519,7 @@
       <c r="D1105" s="4"/>
       <c r="E1105" s="3"/>
       <c r="F1105" s="5"/>
-      <c r="G1105" s="16"/>
+      <c r="G1105" s="17"/>
       <c r="H1105" s="1"/>
       <c r="I1105" s="20"/>
       <c r="J1105" s="1"/>
@@ -16103,7 +16532,7 @@
       <c r="D1106" s="4"/>
       <c r="E1106" s="3"/>
       <c r="F1106" s="5"/>
-      <c r="G1106" s="16"/>
+      <c r="G1106" s="17"/>
       <c r="H1106" s="1"/>
       <c r="I1106" s="20"/>
       <c r="J1106" s="1"/>
@@ -16428,7 +16857,7 @@
       <c r="D1131" s="4"/>
       <c r="E1131" s="3"/>
       <c r="F1131" s="5"/>
-      <c r="G1131" s="17"/>
+      <c r="G1131" s="16"/>
       <c r="H1131" s="1"/>
       <c r="I1131" s="20"/>
       <c r="J1131" s="1"/>
@@ -16441,7 +16870,7 @@
       <c r="D1132" s="4"/>
       <c r="E1132" s="3"/>
       <c r="F1132" s="5"/>
-      <c r="G1132" s="17"/>
+      <c r="G1132" s="16"/>
       <c r="H1132" s="1"/>
       <c r="I1132" s="20"/>
       <c r="J1132" s="1"/>
@@ -16688,7 +17117,7 @@
       <c r="D1151" s="4"/>
       <c r="E1151" s="3"/>
       <c r="F1151" s="5"/>
-      <c r="G1151" s="16"/>
+      <c r="G1151" s="17"/>
       <c r="H1151" s="1"/>
       <c r="I1151" s="20"/>
       <c r="J1151" s="1"/>
@@ -16701,7 +17130,7 @@
       <c r="D1152" s="4"/>
       <c r="E1152" s="3"/>
       <c r="F1152" s="5"/>
-      <c r="G1152" s="16"/>
+      <c r="G1152" s="17"/>
       <c r="H1152" s="1"/>
       <c r="I1152" s="20"/>
       <c r="J1152" s="1"/>
@@ -16766,7 +17195,7 @@
       <c r="D1157" s="4"/>
       <c r="E1157" s="3"/>
       <c r="F1157" s="5"/>
-      <c r="G1157" s="17"/>
+      <c r="G1157" s="16"/>
       <c r="H1157" s="1"/>
       <c r="I1157" s="20"/>
       <c r="J1157" s="1"/>
@@ -16779,7 +17208,7 @@
       <c r="D1158" s="4"/>
       <c r="E1158" s="3"/>
       <c r="F1158" s="5"/>
-      <c r="G1158" s="17"/>
+      <c r="G1158" s="16"/>
       <c r="H1158" s="1"/>
       <c r="I1158" s="20"/>
       <c r="J1158" s="1"/>
@@ -17767,7 +18196,7 @@
       <c r="D1234" s="4"/>
       <c r="E1234" s="3"/>
       <c r="F1234" s="5"/>
-      <c r="G1234" s="16"/>
+      <c r="G1234" s="17"/>
       <c r="H1234" s="1"/>
       <c r="I1234" s="20"/>
       <c r="J1234" s="1"/>
@@ -17780,7 +18209,7 @@
       <c r="D1235" s="4"/>
       <c r="E1235" s="3"/>
       <c r="F1235" s="5"/>
-      <c r="G1235" s="16"/>
+      <c r="G1235" s="17"/>
       <c r="H1235" s="1"/>
       <c r="I1235" s="20"/>
       <c r="J1235" s="1"/>
@@ -17949,7 +18378,7 @@
       <c r="D1248" s="4"/>
       <c r="E1248" s="3"/>
       <c r="F1248" s="5"/>
-      <c r="G1248" s="17"/>
+      <c r="G1248" s="16"/>
       <c r="H1248" s="1"/>
       <c r="I1248" s="20"/>
       <c r="J1248" s="1"/>
@@ -17962,7 +18391,7 @@
       <c r="D1249" s="4"/>
       <c r="E1249" s="3"/>
       <c r="F1249" s="5"/>
-      <c r="G1249" s="17"/>
+      <c r="G1249" s="16"/>
       <c r="H1249" s="1"/>
       <c r="I1249" s="20"/>
       <c r="J1249" s="1"/>
@@ -19522,7 +19951,7 @@
       <c r="D1369" s="4"/>
       <c r="E1369" s="3"/>
       <c r="F1369" s="5"/>
-      <c r="G1369" s="16"/>
+      <c r="G1369" s="17"/>
       <c r="H1369" s="1"/>
       <c r="I1369" s="20"/>
       <c r="J1369" s="1"/>
@@ -19535,7 +19964,7 @@
       <c r="D1370" s="4"/>
       <c r="E1370" s="3"/>
       <c r="F1370" s="5"/>
-      <c r="G1370" s="16"/>
+      <c r="G1370" s="17"/>
       <c r="H1370" s="1"/>
       <c r="I1370" s="20"/>
       <c r="J1370" s="1"/>
@@ -19587,7 +20016,7 @@
       <c r="D1374" s="4"/>
       <c r="E1374" s="3"/>
       <c r="F1374" s="5"/>
-      <c r="G1374" s="17"/>
+      <c r="G1374" s="16"/>
       <c r="H1374" s="1"/>
       <c r="I1374" s="20"/>
       <c r="J1374" s="1"/>
@@ -19600,7 +20029,7 @@
       <c r="D1375" s="4"/>
       <c r="E1375" s="3"/>
       <c r="F1375" s="5"/>
-      <c r="G1375" s="17"/>
+      <c r="G1375" s="16"/>
       <c r="H1375" s="1"/>
       <c r="I1375" s="20"/>
       <c r="J1375" s="1"/>
@@ -19678,7 +20107,7 @@
       <c r="D1381" s="4"/>
       <c r="E1381" s="3"/>
       <c r="F1381" s="5"/>
-      <c r="G1381" s="16"/>
+      <c r="G1381" s="17"/>
       <c r="H1381" s="1"/>
       <c r="I1381" s="20"/>
       <c r="J1381" s="1"/>
@@ -19691,7 +20120,7 @@
       <c r="D1382" s="4"/>
       <c r="E1382" s="3"/>
       <c r="F1382" s="5"/>
-      <c r="G1382" s="16"/>
+      <c r="G1382" s="17"/>
       <c r="H1382" s="1"/>
       <c r="I1382" s="20"/>
       <c r="J1382" s="1"/>
@@ -19808,7 +20237,7 @@
       <c r="D1391" s="4"/>
       <c r="E1391" s="3"/>
       <c r="F1391" s="5"/>
-      <c r="G1391" s="17"/>
+      <c r="G1391" s="16"/>
       <c r="H1391" s="1"/>
       <c r="I1391" s="20"/>
       <c r="J1391" s="1"/>
@@ -19821,7 +20250,7 @@
       <c r="D1392" s="4"/>
       <c r="E1392" s="3"/>
       <c r="F1392" s="5"/>
-      <c r="G1392" s="17"/>
+      <c r="G1392" s="16"/>
       <c r="H1392" s="1"/>
       <c r="I1392" s="20"/>
       <c r="J1392" s="1"/>
@@ -20471,7 +20900,7 @@
       <c r="D1442" s="4"/>
       <c r="E1442" s="3"/>
       <c r="F1442" s="5"/>
-      <c r="G1442" s="16"/>
+      <c r="G1442" s="17"/>
       <c r="H1442" s="1"/>
       <c r="I1442" s="20"/>
       <c r="J1442" s="1"/>
@@ -20484,7 +20913,7 @@
       <c r="D1443" s="4"/>
       <c r="E1443" s="3"/>
       <c r="F1443" s="5"/>
-      <c r="G1443" s="16"/>
+      <c r="G1443" s="17"/>
       <c r="H1443" s="1"/>
       <c r="I1443" s="20"/>
       <c r="J1443" s="1"/>
@@ -20627,7 +21056,7 @@
       <c r="D1454" s="4"/>
       <c r="E1454" s="3"/>
       <c r="F1454" s="5"/>
-      <c r="G1454" s="17"/>
+      <c r="G1454" s="16"/>
       <c r="H1454" s="1"/>
       <c r="I1454" s="20"/>
       <c r="J1454" s="1"/>
@@ -20640,7 +21069,7 @@
       <c r="D1455" s="4"/>
       <c r="E1455" s="3"/>
       <c r="F1455" s="5"/>
-      <c r="G1455" s="17"/>
+      <c r="G1455" s="16"/>
       <c r="H1455" s="1"/>
       <c r="I1455" s="20"/>
       <c r="J1455" s="1"/>
@@ -21870,11 +22299,11 @@
     </row>
     <row r="1550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1550" s="6"/>
-      <c r="B1550" s="3"/>
-      <c r="C1550" s="3"/>
-      <c r="D1550" s="4"/>
-      <c r="E1550" s="3"/>
-      <c r="F1550" s="5"/>
+      <c r="B1550" s="1"/>
+      <c r="C1550" s="1"/>
+      <c r="D1550" s="1"/>
+      <c r="E1550" s="12"/>
+      <c r="F1550" s="1"/>
       <c r="G1550" s="16"/>
       <c r="H1550" s="1"/>
       <c r="I1550" s="20"/>
@@ -21883,11 +22312,11 @@
     </row>
     <row r="1551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1551" s="6"/>
-      <c r="B1551" s="3"/>
-      <c r="C1551" s="3"/>
-      <c r="D1551" s="4"/>
-      <c r="E1551" s="3"/>
-      <c r="F1551" s="5"/>
+      <c r="B1551" s="1"/>
+      <c r="C1551" s="1"/>
+      <c r="D1551" s="1"/>
+      <c r="E1551" s="12"/>
+      <c r="F1551" s="1"/>
       <c r="G1551" s="16"/>
       <c r="H1551" s="1"/>
       <c r="I1551" s="20"/>
@@ -21909,11 +22338,11 @@
     </row>
     <row r="1553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1553" s="6"/>
-      <c r="B1553" s="1"/>
-      <c r="C1553" s="1"/>
-      <c r="D1553" s="1"/>
-      <c r="E1553" s="12"/>
-      <c r="F1553" s="1"/>
+      <c r="B1553" s="3"/>
+      <c r="C1553" s="3"/>
+      <c r="D1553" s="4"/>
+      <c r="E1553" s="3"/>
+      <c r="F1553" s="5"/>
       <c r="G1553" s="16"/>
       <c r="H1553" s="1"/>
       <c r="I1553" s="20"/>
@@ -21922,11 +22351,11 @@
     </row>
     <row r="1554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1554" s="6"/>
-      <c r="B1554" s="1"/>
-      <c r="C1554" s="1"/>
-      <c r="D1554" s="1"/>
-      <c r="E1554" s="12"/>
-      <c r="F1554" s="1"/>
+      <c r="B1554" s="3"/>
+      <c r="C1554" s="3"/>
+      <c r="D1554" s="4"/>
+      <c r="E1554" s="3"/>
+      <c r="F1554" s="5"/>
       <c r="G1554" s="16"/>
       <c r="H1554" s="1"/>
       <c r="I1554" s="20"/>
@@ -22805,7 +23234,7 @@
       <c r="K1621" s="20"/>
     </row>
     <row r="1622" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1622" s="6"/>
+      <c r="A1622" s="14"/>
       <c r="B1622" s="3"/>
       <c r="C1622" s="3"/>
       <c r="D1622" s="4"/>
@@ -22831,7 +23260,7 @@
       <c r="K1623" s="20"/>
     </row>
     <row r="1624" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1624" s="14"/>
+      <c r="A1624" s="6"/>
       <c r="B1624" s="3"/>
       <c r="C1624" s="3"/>
       <c r="D1624" s="4"/>
@@ -26223,34 +26652,8 @@
       <c r="J1884" s="1"/>
       <c r="K1884" s="20"/>
     </row>
-    <row r="1885" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1885" s="6"/>
-      <c r="B1885" s="3"/>
-      <c r="C1885" s="3"/>
-      <c r="D1885" s="4"/>
-      <c r="E1885" s="3"/>
-      <c r="F1885" s="5"/>
-      <c r="G1885" s="16"/>
-      <c r="H1885" s="1"/>
-      <c r="I1885" s="20"/>
-      <c r="J1885" s="1"/>
-      <c r="K1885" s="20"/>
-    </row>
-    <row r="1886" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1886" s="6"/>
-      <c r="B1886" s="3"/>
-      <c r="C1886" s="3"/>
-      <c r="D1886" s="4"/>
-      <c r="E1886" s="3"/>
-      <c r="F1886" s="5"/>
-      <c r="G1886" s="16"/>
-      <c r="H1886" s="1"/>
-      <c r="I1886" s="20"/>
-      <c r="J1886" s="1"/>
-      <c r="K1886" s="20"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K1872" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
+  <autoFilter ref="A1:K1870" xr:uid="{569F81D0-594B-46FB-B57B-6536A980B8CA}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="landscape" r:id="rId1"/>
